--- a/GameDesign/ExcelData/Buff_Data.xlsx
+++ b/GameDesign/ExcelData/Buff_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E3AAF-0C6B-4DE8-86D8-A81BF84986CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A252C-FA0C-43C5-A1C1-D709610FA93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>long</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>[0,1,2]</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0:0.5]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,18 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,10 +430,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -433,10 +450,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -450,6 +470,9 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/GameDesign/ExcelData/Buff_Data.xlsx
+++ b/GameDesign/ExcelData/Buff_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963A252C-FA0C-43C5-A1C1-D709610FA93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD4EFD-774A-4429-857B-72CBD96C3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="4008" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>buff1</t>
   </si>
   <si>
-    <t>[0,1,2]</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +63,10 @@
   </si>
   <si>
     <t>[[0:0.5]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +407,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -430,7 +431,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -450,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -470,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Buff_Data.xlsx
+++ b/GameDesign/ExcelData/Buff_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AD4EFD-774A-4429-857B-72CBD96C3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E0761-6205-4F3B-9FE9-BACC9AD9B5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="4008" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>long</t>
   </si>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>[0,1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP+2/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +411,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -465,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>

--- a/GameDesign/ExcelData/Buff_Data.xlsx
+++ b/GameDesign/ExcelData/Buff_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71E0761-6205-4F3B-9FE9-BACC9AD9B5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA95B8-B184-4300-B6BB-F53A5C1570D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>long</t>
   </si>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>HP+2/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -419,9 +427,10 @@
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="5" width="9.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +449,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -460,8 +472,11 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -479,6 +494,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/ExcelData/Buff_Data.xlsx
+++ b/GameDesign/ExcelData/Buff_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill-makeEnd\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA95B8-B184-4300-B6BB-F53A5C1570D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C99D4-2C40-4F1A-BA41-34EEE16DE540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
